--- a/ComprasCartonesLGP.Web/Areas/ContentAdmin/Data/Archivos/Clientes/cliente.xlsx
+++ b/ComprasCartonesLGP.Web/Areas/ContentAdmin/Data/Archivos/Clientes/cliente.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <x:si>
     <x:t>Nombre y Apellido</x:t>
   </x:si>
@@ -58,13 +58,1153 @@
     <x:t>Nº Celular</x:t>
   </x:si>
   <x:si>
+    <x:t>Fecha de alta</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TORANZO , Andrea </x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-01-1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Femenino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27422606837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42260683</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CORDOBA                       </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ARROYITO                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rafael Bianchi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>celestetoranzo905@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3576-468301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 12:41:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALVAREZ, ALVAREZ MARISABEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-07-1976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27242402214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24240221</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MORTEROS                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYACUCHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zpabloruben@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3562-509955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 12:47:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montoya, Arturo Matias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-04-1983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Masculino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20301239719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30123971</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ocarina </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>matti_m@live.com.ar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351-6769954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 13:26:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moyano , Olga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-12-1965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27183435847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18343584</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SAN FRANCISCO                 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Carlos gilli </x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">San justo </x:t>
+  </x:si>
+  <x:si>
+    <x:t>olgaciro02@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-511123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 18:35:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ludueña, Patricia Monica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-02-1966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27181735509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18173550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belgrado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patriciascundi@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351-2229778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 18:36:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Pons2, Carlos </x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-05-1979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20270657789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27065778</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MALAGUENO                     </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Joaquín castellanos </x:t>
+  </x:si>
+  <x:si>
+    <x:t>657</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Santa María </x:t>
+  </x:si>
+  <x:si>
+    <x:t>bataglia30vanesa@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-581231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 19:18:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vilchez, Andrea de los angeles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-02-2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27305075936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30507593</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PASCO                         </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ribadavia583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Genera san martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andivilchez32@gamil.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353-4785828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2022 21:33:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brinatti, Enies Lucia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-11-1994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27385526240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38552624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Italia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enibrinatti.17@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2302-564848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/02/2022 8:50:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PERASSO, CR.FERNANDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-08-1954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20113196778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11319677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DR. FEDERICO PADULA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nanocont@yahoo.com.ar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351-6644984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/02/2022 9:49:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Brizio , Gabriel </x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-05-1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20409064168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40906416</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">LAS VARAS                     </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dr Grundy </x:t>
+  </x:si>
+  <x:si>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gabrielbrizio98@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3533-498199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/02/2022 16:09:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bosco, María Emilia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-02-1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27335377945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33537794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 de Mayo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emilia.bosco@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-331333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/02/2022 16:11:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gramaglia , Roman </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-08-1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20339406732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33940673</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RIO TERCERO                   </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Belisario Roldán </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roman_g88@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-330044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/02/2022 16:35:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missan, Jose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-05-1985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20313479138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31347913</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JAMES CRAIK                   </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9 de julio barrio verde james craik </x:t>
+  </x:si>
+  <x:si>
+    <x:t>806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ariba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tercero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jose22missan@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353-4083231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 11:40:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gonzalez, Mario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-03-1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20394997669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39499766</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VILLA MARIA                   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Independencia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mario-elkapo2010@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3536-576739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 12:39:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCHAAB, OMAR ALBERTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-03-1963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23162282239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16228223</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SANTA FE                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RAMONA                        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>N. AVELLANEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CASTELLANOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yanischaab@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3492-205739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 12:53:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bossio, Gastón</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-08-1995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20387300210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38730021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dean Funes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gastonbossio001@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-470822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 12:57:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viola, Martín José</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-03-1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20335379153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33537915</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DEVOTO                        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esteban Larco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>martinjoseviola@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-510253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 15:46:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Castro, Ayelen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-10-1994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27382807079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38280707</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">López y planes </x:t>
+  </x:si>
+  <x:si>
+    <x:t>376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ayucastro15@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3491-699927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 15:57:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lazzarini, Aníbal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-06-1958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20124748055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12474805</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BRINKMANN                     </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rivadavia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anlazza@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3562-671157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 21:31:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fernández, Fabián francisco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-08-1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20327766334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32776633</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MORRISON                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zona rural</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Union</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fariassoledad641@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3537-315842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/02/2022 21:31:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boz, Hernán Mauricio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20234869397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23486939</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VILLA CARLOS PAZ              </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benjamín Lavaisse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hernanboz@yahoo.com.ar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351-5062416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 10:16:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina, Elsa Ines</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-02-1984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27308460318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30846031</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">FRONTERA                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calle 102 num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ines313_47@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-370567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 10:20:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bossio, Camila</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-11-1994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27381105518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38110551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Güemes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>camila.bossio@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-699171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 15:44:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Etelvina, Velozo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-12-1961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27148930924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14893092</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CALCHIN                       </x:t>
+  </x:si>
+  <x:si>
+    <x:t>etelvinavelozo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351-2301594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 17:47:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Accastello , Nicolás Alejandro </x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-08-1982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20296986691</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29698669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Lorenzo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">San Justo </x:t>
+  </x:si>
+  <x:si>
+    <x:t>nykoarchivo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-611429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 17:52:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bazan, Ramon del valle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-06-1970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20214022460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21402246</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TRANSITO                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 de setiembre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mairitabazan@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3576-412167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/02/2022 18:26:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alassia, Cecilia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-07-1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27236112894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23611289</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PRESIDENTE ROCA               </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victorio bossi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mile.gerbaudo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3492-671574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/02/2022 9:30:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BILLORDO , Jorge Ernesto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-09-1991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20364686987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36468698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JJ torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jorgedelsanta2214@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3794-748124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/02/2022 13:57:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goncalves, Auria Andrea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-09-1985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23313306984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31330698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pringles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goncauriandrea@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3562-518495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/02/2022 17:22:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Galeano, Nerina Soledad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-1981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27284006831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28400683</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ALTOS DE CHIPION              </x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 de julio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>soledadgaleano431@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3562-444273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/02/2022 18:55:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITURRE, Ramon osvaldo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-07-1967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018308068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18308068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iturre122@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-360276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/02/2022 20:21:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ayala, Domingo ramon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-1964</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23167179819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16717981</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BARRIO CAIMA                  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida los eucalitus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liliana15cardozo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342-4620652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2022 8:42:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monje, Natalia </x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-01-1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27407862207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40786220</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SACANTA                       </x:t>
+  </x:si>
+  <x:si>
+    <x:t>San luis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solmonje78@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3533-685879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2022 12:30:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ponce , Esteban Alexis </x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-07-1990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20355637736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35563773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rioja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ponce_ale10@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-514294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2022 8:49:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarmiento, Silvia Liliana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-01-1956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27118304271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11830427</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ARRUFO                        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crippa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>silvitasarmiento@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3491-508080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2022 11:17:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Palombo, Marina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-05-1989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27339235428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33923542</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">rio sali </x:t>
+  </x:si>
+  <x:si>
+    <x:t>308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marinapalombo06@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3468-436988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2022 11:35:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BERTICHE, VERONICA ANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-12-1975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27243327925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24332792</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GUTIERREZ SUR  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>verobertiche@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-659794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2022 17:05:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanchez, Leonardo Alberto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-05-1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2032901324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32901324</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cincuentenario </x:t>
+  </x:si>
+  <x:si>
+    <x:t>957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cintiacomelli_771@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3564-624614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2022 18:46:17</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Pairone, Matias Nicolas </x:t>
   </x:si>
   <x:si>
-    <x:t>22/06/1993 0:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Masculino</x:t>
+    <x:t>22-06-1993</x:t>
   </x:si>
   <x:si>
     <x:t>20366286102</x:t>
@@ -73,12 +1213,6 @@
     <x:t>36628610</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">CORDOBA                       </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SAN FRANCISCO                 </x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Ameghino </x:t>
   </x:si>
   <x:si>
@@ -91,13 +1225,13 @@
     <x:t>3564-689398</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2022 8:06:31</x:t>
+  </x:si>
+  <x:si>
     <x:t>Tissera, Verónica</x:t>
   </x:si>
   <x:si>
-    <x:t>10/03/1984 0:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Femenino</x:t>
+    <x:t>10-03-1984</x:t>
   </x:si>
   <x:si>
     <x:t>27308461101</x:t>
@@ -106,12 +1240,6 @@
     <x:t>30846110</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">SANTA FE                      </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FRONTERA                      </x:t>
-  </x:si>
-  <x:si>
     <x:t>98</x:t>
   </x:si>
   <x:si>
@@ -127,10 +1255,13 @@
     <x:t>3564-389210</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2022 10:04:41</x:t>
+  </x:si>
+  <x:si>
     <x:t>MATTALIA, MAURO RUBEN</x:t>
   </x:si>
   <x:si>
-    <x:t>10/10/1991 0:00:00</x:t>
+    <x:t>10-10-1991</x:t>
   </x:si>
   <x:si>
     <x:t>20364470518</x:t>
@@ -148,13 +1279,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>G</x:t>
-  </x:si>
-  <x:si>
     <x:t>mattalia.mauro10@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>351-5939092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2022 12:56:23</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -505,13 +1636,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N4"/>
+  <x:dimension ref="A1:O42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
+    <x:row r="1" spans="1:15">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -554,60 +1685,66 @@
       <x:c r="N1" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:14">
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:15">
       <x:c r="A2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>31</x:v>
@@ -618,17 +1755,17 @@
       <x:c r="I3" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="M3" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="N3" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="s">
+      <x:c r="O3" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:14">
+    <x:row r="4" spans="1:15">
       <x:c r="A4" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -636,27 +1773,24 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
@@ -667,6 +1801,1516 @@
       </x:c>
       <x:c r="N4" s="0" t="s">
         <x:v>46</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:15">
+      <x:c r="A5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:15">
+      <x:c r="A6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:15">
+      <x:c r="A7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:15">
+      <x:c r="A8" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:15">
+      <x:c r="A9" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:15">
+      <x:c r="A10" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:15">
+      <x:c r="A11" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:15">
+      <x:c r="A12" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:15">
+      <x:c r="A13" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:15">
+      <x:c r="A14" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:15">
+      <x:c r="A15" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:15">
+      <x:c r="A16" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:15">
+      <x:c r="A17" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:15">
+      <x:c r="A18" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:15">
+      <x:c r="A19" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:15">
+      <x:c r="A20" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:15">
+      <x:c r="A21" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:15">
+      <x:c r="A22" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:15">
+      <x:c r="A23" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:15">
+      <x:c r="A24" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:15">
+      <x:c r="A25" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:15">
+      <x:c r="A26" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:15">
+      <x:c r="A27" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:15">
+      <x:c r="A28" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:15">
+      <x:c r="A29" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:15">
+      <x:c r="A30" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:15">
+      <x:c r="A31" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:15">
+      <x:c r="A32" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:15">
+      <x:c r="A33" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:15">
+      <x:c r="A34" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:15">
+      <x:c r="A35" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:15">
+      <x:c r="A36" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:15">
+      <x:c r="A37" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:15">
+      <x:c r="A38" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:15">
+      <x:c r="A39" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="O39" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:15">
+      <x:c r="A40" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:15">
+      <x:c r="A41" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:15">
+      <x:c r="A42" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="O42" s="0" t="s">
+        <x:v>423</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
